--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_45_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_45_.xlsx
@@ -136,7 +136,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -172,7 +172,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -186,7 +186,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -418,7 +418,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -434,7 +434,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -448,7 +448,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -568,7 +568,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -605,7 +605,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -863,7 +863,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -879,7 +879,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -893,7 +893,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1050,7 +1050,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1064,7 +1064,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -1308,7 +1308,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -1324,7 +1324,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -1458,7 +1458,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
@@ -1492,7 +1492,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>
@@ -3334,7 +3334,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="80.6561797752809" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
@@ -3350,7 +3350,7 @@
     <row ht="20" customHeight="true" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
-          <t> SUMMIT ALLIANCE PORT LIMITED (OCL) </t>
+          <t>SUMMIT ALLIANCE PORT LIMITED</t>
         </is>
       </c>
     </row>
@@ -3364,7 +3364,7 @@
     <row ht="16" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t> MAERSK LINE  / MAERSK LINE(MAERSK BANGLADESH LTD.)</t>
+          <t>BTB</t>
         </is>
       </c>
     </row>

--- a/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_45_.xlsx
+++ b/reports/_BTB_SUMMIT ALLIANCE PORT LIMITED_container_report_2018-11-28_45_.xlsx
@@ -17,9 +17,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="100" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="101" formatCode="yyyy/mm/dd hh:mm:ss"/>
+    <numFmt numFmtId="102" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -108,13 +109,14 @@
   <cellStyleXfs count="1">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="1" numFmtId="0" fontId="0" fillId="0" xfId="0"/>
     <xf borderId="0" numFmtId="14" fontId="0" fillId="0" xfId="0" applyNumberFormat="1"/>
     <xf borderId="2" numFmtId="0" fontId="1" fillId="2" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" wrapText="false"/>
     </xf>
+    <xf borderId="0" numFmtId="102" fontId="0" fillId="0" applyNumberFormat="true" applyFill="false" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf borderId="3" numFmtId="0" fontId="2" fillId="3" applyNumberFormat="false" applyFill="true" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false"/>
   </cellXfs>
   <cellStyles count="1">
@@ -130,43 +132,35 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:W7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -176,220 +170,173 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -412,23 +359,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -438,106 +385,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>In Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -562,44 +507,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
     <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="19" max="19" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -609,232 +552,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Height</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Unstuffing Date</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>In Trailer</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -857,23 +783,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -883,106 +809,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Empty Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1007,44 +931,42 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AD8"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="25.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="23.713483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="20.713483146067418"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="21" max="21" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="22" max="22" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="23" max="23" bestFit="true" customWidth="true" width="11.713483146067416"/>
-    <col min="24" max="24" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="22.213483146067418"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="21" max="21" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="22" max="22" bestFit="true" customWidth="true" width="5.713483146067416"/>
+    <col min="23" max="23" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="24" max="24" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="27" max="27" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="28" max="28" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="29" max="29" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="30" max="30" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="31" max="31" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="32" max="32" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="30" max="30" bestFit="true" customWidth="true" width="8.713483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1054,232 +976,215 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report</t>
         </is>
       </c>
     </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
         <is>
           <t>Total number of conatiners:1</t>
         </is>
       </c>
     </row>
-    <row r="6"/>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="L6" s="5" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="5" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="5" t="inlineStr">
+        <is>
+          <t>Destination Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Export Vessel Name</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Export Rotation Number</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Stuffing Date</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Gate Out Date</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Eir Number</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Seal No</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Commodity</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Vat</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Cbm</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Weight</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Forwarder</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="AB6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="AC6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="AD6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+    </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>CNFCommodity</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Current Depo</t>
-        </is>
-      </c>
-      <c r="M7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Out Date</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>Out Location</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>Total Lot</t>
-        </is>
-      </c>
-      <c r="AD7" s="4" t="inlineStr">
-        <is>
-          <t>Total Weight</t>
-        </is>
-      </c>
-      <c r="AE7" s="4" t="inlineStr">
-        <is>
-          <t>Out Transport</t>
-        </is>
-      </c>
-      <c r="AF7" s="4" t="inlineStr">
-        <is>
-          <t>Out Remarks</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="B8" s="0"/>
-      <c r="C8" s="0"/>
-      <c r="D8" s="0"/>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
-      <c r="I8" s="0"/>
-      <c r="J8" s="0"/>
-      <c r="K8" s="0"/>
-      <c r="L8" s="0" t="d">
+      <c r="A7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="B7" s="0"/>
+      <c r="C7" s="0"/>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0"/>
+      <c r="F7" s="0"/>
+      <c r="G7" s="0"/>
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="0"/>
+      <c r="K7" s="0"/>
+      <c r="L7" s="0" t="d">
         <v>0001-01-01T00:00:00</v>
       </c>
-      <c r="M8" s="0"/>
-      <c r="N8" s="0"/>
-      <c r="O8" s="0"/>
-      <c r="P8" s="0"/>
-      <c r="Q8" s="0"/>
-      <c r="R8" s="0"/>
-      <c r="S8" s="0"/>
-      <c r="T8" s="0"/>
-      <c r="U8" s="0"/>
-      <c r="V8" s="0"/>
-      <c r="W8" s="0"/>
-      <c r="X8" s="0"/>
-      <c r="Y8" s="0"/>
-      <c r="Z8" s="0"/>
-      <c r="AA8" s="0"/>
-      <c r="AB8" s="0"/>
-      <c r="AC8" s="0"/>
-      <c r="AD8" s="0"/>
+      <c r="M7" s="0"/>
+      <c r="N7" s="0"/>
+      <c r="O7" s="0"/>
+      <c r="P7" s="0"/>
+      <c r="Q7" s="0"/>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0"/>
+      <c r="V7" s="0"/>
+      <c r="W7" s="0"/>
+      <c r="X7" s="0"/>
+      <c r="Y7" s="0"/>
+      <c r="Z7" s="0"/>
+      <c r="AA7" s="0"/>
+      <c r="AB7" s="0"/>
+      <c r="AC7" s="0"/>
+      <c r="AD7" s="0"/>
     </row>
   </sheetData>
   <sheetCalcPr fullCalcOnLoad="true"/>
@@ -1302,23 +1207,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1328,106 +1233,104 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>BTB</t>
-        </is>
-      </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
           <t>Out Laden Report Summary</t>
         </is>
       </c>
     </row>
-    <row r="5"/>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="0"/>
-      <c r="B7" s="0"/>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" s="0" t="n">
+      <c r="A6" s="0"/>
+      <c r="B6" s="0"/>
+      <c r="C6" s="0"/>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1452,41 +1355,39 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AA22"/>
+  <dimension ref="A1:AA21"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="true"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="true"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="20.713483146067418"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="7.489887640449439"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="8.713483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.213483146067418"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="10.213483146067416"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="7.213483146067416"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="23.98988764044944"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="12.989887640449439"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="25.213483146067418"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="16.213483146067418"/>
     <col min="12" max="12" bestFit="true" customWidth="true" width="21.789887640449443"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="19.213483146067418"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="16" max="16" bestFit="true" customWidth="true" width="14.713483146067416"/>
-    <col min="17" max="17" bestFit="true" customWidth="true" width="16.213483146067418"/>
-    <col min="18" max="18" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="28.213483146067418"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" width="14.713483146067416"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="16.213483146067418"/>
+    <col min="17" max="17" bestFit="true" customWidth="true" width="22.213483146067418"/>
+    <col min="18" max="18" bestFit="true" customWidth="true" width="13.213483146067416"/>
     <col min="19" max="19" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="20" max="20" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="20" max="20" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="21" max="21" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="22" max="22" bestFit="true" customWidth="true" width="33.889887640449444"/>
     <col min="23" max="23" bestFit="true" customWidth="true" width="47.08988764044945"/>
     <col min="24" max="24" bestFit="true" customWidth="true" width="42.689887640449435"/>
-    <col min="25" max="25" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="26" max="26" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="27" max="27" bestFit="true" customWidth="true" width="10.213483146067416"/>
-    <col min="28" max="28" bestFit="true" customWidth="true" width="13.213483146067416"/>
-    <col min="29" max="29" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="25" max="25" bestFit="true" customWidth="true" width="23.713483146067418"/>
+    <col min="26" max="26" bestFit="true" customWidth="true" width="17.713483146067418"/>
+    <col min="27" max="27" bestFit="true" customWidth="true" width="16.213483146067418"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -1496,189 +1397,281 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report</t>
+        </is>
+      </c>
+    </row>
+    <row ht="16" customHeight="true" r="4">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>Total number of conatiners:15</t>
+        </is>
+      </c>
+    </row>
+    <row r="5"/>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>Container Number</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="inlineStr">
+        <is>
+          <t>Container Size</t>
+        </is>
+      </c>
+      <c r="D6" s="5" t="inlineStr">
+        <is>
+          <t>Container Type</t>
+        </is>
+      </c>
+      <c r="E6" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="G6" s="5" t="inlineStr">
+        <is>
+          <t>Current Depot Unit</t>
+        </is>
+      </c>
+      <c r="H6" s="5" t="inlineStr">
+        <is>
+          <t>Permitted Depot Unit</t>
+        </is>
+      </c>
+      <c r="I6" s="5" t="inlineStr">
+        <is>
+          <t>Import Vessel Name</t>
+        </is>
+      </c>
+      <c r="J6" s="5" t="inlineStr">
+        <is>
+          <t>Import Rotation Number</t>
+        </is>
+      </c>
+      <c r="K6" s="5" t="inlineStr">
+        <is>
+          <t>Source Location</t>
+        </is>
+      </c>
+      <c r="L6" s="4" t="inlineStr">
+        <is>
+          <t>Gate In Date</t>
+        </is>
+      </c>
+      <c r="M6" s="4" t="inlineStr">
+        <is>
+          <t>Container Condition Name</t>
+        </is>
+      </c>
+      <c r="N6" s="4" t="inlineStr">
+        <is>
+          <t>Bay Location</t>
+        </is>
+      </c>
+      <c r="O6" s="5" t="inlineStr">
+        <is>
+          <t>Storage Day</t>
+        </is>
+      </c>
+      <c r="P6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status</t>
+        </is>
+      </c>
+      <c r="Q6" s="5" t="inlineStr">
+        <is>
+          <t>Container Status Name</t>
+        </is>
+      </c>
+      <c r="R6" s="5" t="inlineStr">
+        <is>
+          <t>Di Agent</t>
+        </is>
+      </c>
+      <c r="S6" s="5" t="inlineStr">
+        <is>
+          <t>Di Mlo</t>
+        </is>
+      </c>
+      <c r="T6" s="5" t="inlineStr">
+        <is>
+          <t>Di Date</t>
+        </is>
+      </c>
+      <c r="U6" s="5" t="inlineStr">
+        <is>
+          <t>Remarks</t>
+        </is>
+      </c>
+      <c r="V6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Area Name</t>
+        </is>
+      </c>
+      <c r="W6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Part Name</t>
+        </is>
+      </c>
+      <c r="X6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Description</t>
+        </is>
+      </c>
+      <c r="Y6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Component</t>
+        </is>
+      </c>
+      <c r="Z6" s="5" t="inlineStr">
+        <is>
+          <t>Damage Type</t>
+        </is>
+      </c>
+      <c r="AA6" s="5" t="inlineStr">
+        <is>
+          <t>Repair Type</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="n">
+        <v>37000</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>SNHU8001278</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>40</v>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
           <t>BTB</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report</t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>Total number of conatiners:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="6"/>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>ID</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>Container Number</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="H7" s="4" t="inlineStr">
-        <is>
-          <t>Vessel</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="inlineStr">
-        <is>
-          <t>Rotation #</t>
-        </is>
-      </c>
-      <c r="J7" s="4" t="inlineStr">
-        <is>
-          <t>Importer</t>
-        </is>
-      </c>
-      <c r="K7" s="4" t="inlineStr">
-        <is>
-          <t>Container Condition</t>
-        </is>
-      </c>
-      <c r="L7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Area</t>
-        </is>
+      <c r="G7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H7" s="0" t="inlineStr">
+        <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="I7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="J7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="K7" s="0" t="inlineStr">
+        <is>
+          <t>HSAT</t>
+        </is>
+      </c>
+      <c r="L7" s="4" t="d">
+        <v>2018-06-19T00:00:00</v>
       </c>
       <c r="M7" s="4" t="inlineStr">
         <is>
-          <t>Damage Part</t>
-        </is>
-      </c>
-      <c r="N7" s="4" t="inlineStr">
-        <is>
-          <t>Damage Description</t>
-        </is>
-      </c>
-      <c r="O7" s="4" t="inlineStr">
-        <is>
-          <t>CNF</t>
-        </is>
-      </c>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>Commodity</t>
-        </is>
-      </c>
-      <c r="Q7" s="4" t="inlineStr">
-        <is>
-          <t>Seal Number</t>
-        </is>
-      </c>
-      <c r="R7" s="4" t="inlineStr">
-        <is>
-          <t>Amended Seal No</t>
-        </is>
-      </c>
-      <c r="S7" s="4" t="inlineStr">
-        <is>
-          <t>EIR #</t>
-        </is>
-      </c>
-      <c r="T7" s="4" t="inlineStr">
-        <is>
-          <t>Issue Date</t>
-        </is>
-      </c>
-      <c r="U7" s="4" t="inlineStr">
-        <is>
-          <t>In Date</t>
-        </is>
-      </c>
-      <c r="V7" s="4" t="inlineStr">
-        <is>
-          <t>Location - From</t>
-        </is>
-      </c>
-      <c r="W7" s="4" t="inlineStr">
-        <is>
-          <t>Depo Loc</t>
-        </is>
-      </c>
-      <c r="X7" s="4" t="inlineStr">
-        <is>
-          <t>BE #</t>
-        </is>
-      </c>
-      <c r="Y7" s="4" t="inlineStr">
-        <is>
-          <t>BL #</t>
-        </is>
-      </c>
-      <c r="Z7" s="4" t="inlineStr">
-        <is>
-          <t>Line #</t>
-        </is>
-      </c>
-      <c r="AA7" s="4" t="inlineStr">
-        <is>
-          <t>Trailer #</t>
-        </is>
-      </c>
-      <c r="AB7" s="4" t="inlineStr">
-        <is>
-          <t>In Transport</t>
-        </is>
-      </c>
-      <c r="AC7" s="4" t="inlineStr">
-        <is>
-          <t>In Remarks</t>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="0" t="n">
+        <v>162</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="0" t="inlineStr">
+        <is>
+          <t>Empty</t>
+        </is>
+      </c>
+      <c r="R7" s="0"/>
+      <c r="S7" s="0"/>
+      <c r="T7" s="0"/>
+      <c r="U7" s="0" t="n">
+        <v>1441873</v>
+      </c>
+      <c r="V7" s="0" t="inlineStr">
+        <is>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+        </is>
+      </c>
+      <c r="W7" s="0" t="inlineStr">
+        <is>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+        </is>
+      </c>
+      <c r="X7" s="0" t="inlineStr">
+        <is>
+          <t>POWER CABLE &amp; PLUG OK</t>
+        </is>
+      </c>
+      <c r="Y7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="Z7" s="0" t="inlineStr">
+        <is>
+          <t/>
+        </is>
+      </c>
+      <c r="AA7" s="0" t="inlineStr">
+        <is>
+          <t/>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="n">
-        <v>38786</v>
+        <v>37000</v>
       </c>
       <c r="B8" s="0" t="inlineStr">
         <is>
-          <t>TRIU8829921</t>
+          <t>SNHU8001278</t>
         </is>
       </c>
       <c r="C8" s="0" t="n">
@@ -1706,35 +1699,35 @@
       </c>
       <c r="H8" s="0" t="inlineStr">
         <is>
-          <t>SAPL-E</t>
+          <t>SAPL-W</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT </t>
+          <t/>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>2623/18</t>
+          <t/>
         </is>
       </c>
       <c r="K8" s="0" t="inlineStr">
         <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L8" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M8" s="0" t="inlineStr">
+          <t>HSAT</t>
+        </is>
+      </c>
+      <c r="L8" s="4" t="d">
+        <v>2018-06-19T00:00:00</v>
+      </c>
+      <c r="M8" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N8" s="0"/>
+      <c r="N8" s="4"/>
       <c r="O8" s="0" t="n">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="P8" s="0" t="n">
         <v>0</v>
@@ -1748,21 +1741,21 @@
       <c r="S8" s="0"/>
       <c r="T8" s="0"/>
       <c r="U8" s="0" t="n">
-        <v>1478354</v>
+        <v>1441873</v>
       </c>
       <c r="V8" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W8" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X8" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK</t>
+          <t>FLOOR BOARD DIRTY BY DUST</t>
         </is>
       </c>
       <c r="Y8" s="0" t="inlineStr">
@@ -1783,11 +1776,11 @@
     </row>
     <row r="9">
       <c r="A9" s="0" t="n">
-        <v>38786</v>
+        <v>37173</v>
       </c>
       <c r="B9" s="0" t="inlineStr">
         <is>
-          <t>TRIU8829921</t>
+          <t>KKFU6993850</t>
         </is>
       </c>
       <c r="C9" s="0" t="n">
@@ -1820,12 +1813,12 @@
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>BRIGHT </t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>2623/18</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K9" s="0" t="inlineStr">
@@ -1833,17 +1826,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L9" s="0" t="d">
-        <v>2018-09-12T00:00:00</v>
-      </c>
-      <c r="M9" s="0" t="inlineStr">
+      <c r="L9" s="4" t="d">
+        <v>2018-07-28T00:00:00</v>
+      </c>
+      <c r="M9" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N9" s="0"/>
+      <c r="N9" s="4"/>
       <c r="O9" s="0" t="n">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="P9" s="0" t="n">
         <v>0</v>
@@ -1857,21 +1850,21 @@
       <c r="S9" s="0"/>
       <c r="T9" s="0"/>
       <c r="U9" s="0" t="n">
-        <v>1478354</v>
+        <v>1459324</v>
       </c>
       <c r="V9" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
         </is>
       </c>
       <c r="W9" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
         </is>
       </c>
       <c r="X9" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD DIRTY BY DUST</t>
+          <t>POWER CABLE &amp; PLUG OK .</t>
         </is>
       </c>
       <c r="Y9" s="0" t="inlineStr">
@@ -1892,19 +1885,19 @@
     </row>
     <row r="10">
       <c r="A10" s="0" t="n">
-        <v>39085</v>
+        <v>37173</v>
       </c>
       <c r="B10" s="0" t="inlineStr">
         <is>
-          <t>FSCU3227152</t>
+          <t>KKFU6993850</t>
         </is>
       </c>
       <c r="C10" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D10" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E10" s="0" t="inlineStr">
@@ -1919,22 +1912,22 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H10" s="0" t="inlineStr">
+        <is>
           <t>SAPL-E</t>
         </is>
       </c>
-      <c r="H10" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
-          <t>MCC QINGDAO</t>
+          <t>M GOUGH</t>
         </is>
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>00/18</t>
+          <t>1854/18</t>
         </is>
       </c>
       <c r="K10" s="0" t="inlineStr">
@@ -1942,17 +1935,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L10" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M10" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N10" s="0"/>
+      <c r="L10" s="4" t="d">
+        <v>2018-07-28T00:00:00</v>
+      </c>
+      <c r="M10" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N10" s="4"/>
       <c r="O10" s="0" t="n">
-        <v>76</v>
+        <v>123</v>
       </c>
       <c r="P10" s="0" t="n">
         <v>0</v>
@@ -1966,21 +1959,21 @@
       <c r="S10" s="0"/>
       <c r="T10" s="0"/>
       <c r="U10" s="0" t="n">
-        <v>1479120</v>
+        <v>1459324</v>
       </c>
       <c r="V10" s="0" t="inlineStr">
         <is>
-          <t>PANELS-(PANELS)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W10" s="0" t="inlineStr">
         <is>
-          <t>Right side panel -(Right side panel )</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X10" s="0" t="inlineStr">
         <is>
-          <t>INTERNAL PANEL DIRTY.</t>
+          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y10" s="0" t="inlineStr">
@@ -2001,11 +1994,11 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="n">
-        <v>39085</v>
+        <v>38415</v>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>FSCU3227152</t>
+          <t>TRIU6610169</t>
         </is>
       </c>
       <c r="C11" s="0" t="n">
@@ -2013,7 +2006,7 @@
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
@@ -2028,22 +2021,22 @@
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H11" s="0" t="inlineStr">
+        <is>
           <t>SAPL-E</t>
         </is>
       </c>
-      <c r="H11" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>MCC QINGDAO</t>
+          <t>	MV.X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>00/18</t>
+          <t>2018/2407</t>
         </is>
       </c>
       <c r="K11" s="0" t="inlineStr">
@@ -2051,17 +2044,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L11" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M11" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N11" s="0"/>
+      <c r="L11" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M11" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N11" s="4"/>
       <c r="O11" s="0" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P11" s="0" t="n">
         <v>0</v>
@@ -2075,21 +2068,21 @@
       <c r="S11" s="0"/>
       <c r="T11" s="0"/>
       <c r="U11" s="0" t="n">
-        <v>1479120</v>
+        <v>1477213</v>
       </c>
       <c r="V11" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
         </is>
       </c>
       <c r="W11" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
         </is>
       </c>
       <c r="X11" s="0" t="inlineStr">
         <is>
-          <t>F/BOARD DIRTY BY DUST.</t>
+          <t>POWER CABLE &amp; PLUG OK .</t>
         </is>
       </c>
       <c r="Y11" s="0" t="inlineStr">
@@ -2110,11 +2103,11 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="n">
-        <v>39085</v>
+        <v>38415</v>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>FSCU3227152</t>
+          <t>TRIU6610169</t>
         </is>
       </c>
       <c r="C12" s="0" t="n">
@@ -2122,7 +2115,7 @@
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>GP</t>
+          <t>RF</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
@@ -2137,22 +2130,22 @@
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
+          <t>SAPL-W</t>
+        </is>
+      </c>
+      <c r="H12" s="0" t="inlineStr">
+        <is>
           <t>SAPL-E</t>
         </is>
       </c>
-      <c r="H12" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>MCC QINGDAO</t>
+          <t>	MV.X-PRESS MAHANANDA</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>00/18</t>
+          <t>2018/2407</t>
         </is>
       </c>
       <c r="K12" s="0" t="inlineStr">
@@ -2160,17 +2153,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L12" s="0" t="d">
-        <v>2018-09-13T00:00:00</v>
-      </c>
-      <c r="M12" s="0" t="inlineStr">
-        <is>
-          <t>DAMAGE</t>
-        </is>
-      </c>
-      <c r="N12" s="0"/>
+      <c r="L12" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M12" s="4" t="inlineStr">
+        <is>
+          <t>WASH</t>
+        </is>
+      </c>
+      <c r="N12" s="4"/>
       <c r="O12" s="0" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="P12" s="0" t="n">
         <v>0</v>
@@ -2184,21 +2177,21 @@
       <c r="S12" s="0"/>
       <c r="T12" s="0"/>
       <c r="U12" s="0" t="n">
-        <v>1479120</v>
+        <v>1477213</v>
       </c>
       <c r="V12" s="0" t="inlineStr">
         <is>
-          <t>DOORS-(D)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W12" s="0" t="inlineStr">
         <is>
-          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X12" s="0" t="inlineStr">
         <is>
-          <t>R/DOOR BTM GASKET CUT 06"</t>
+          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y12" s="0" t="inlineStr">
@@ -2219,15 +2212,15 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="n">
-        <v>39122</v>
+        <v>38416</v>
       </c>
       <c r="B13" s="0" t="inlineStr">
         <is>
-          <t>TRIU8433289</t>
+          <t>KKTU6072891</t>
         </is>
       </c>
       <c r="C13" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
@@ -2256,12 +2249,12 @@
       </c>
       <c r="I13" s="0" t="inlineStr">
         <is>
-          <t>OEL LANKA  V-1811N</t>
+          <t>MV.A.IDEFIX</t>
         </is>
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>2018/2515</t>
+          <t>2018/2574</t>
         </is>
       </c>
       <c r="K13" s="0" t="inlineStr">
@@ -2269,17 +2262,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L13" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M13" s="0" t="inlineStr">
+      <c r="L13" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M13" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N13" s="0"/>
+      <c r="N13" s="4"/>
       <c r="O13" s="0" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P13" s="0" t="n">
         <v>0</v>
@@ -2293,7 +2286,7 @@
       <c r="S13" s="0"/>
       <c r="T13" s="0"/>
       <c r="U13" s="0" t="n">
-        <v>1479206</v>
+        <v>1477214</v>
       </c>
       <c r="V13" s="0" t="inlineStr">
         <is>
@@ -2328,15 +2321,15 @@
     </row>
     <row r="14">
       <c r="A14" s="0" t="n">
-        <v>39122</v>
+        <v>38416</v>
       </c>
       <c r="B14" s="0" t="inlineStr">
         <is>
-          <t>TRIU8433289</t>
+          <t>KKTU6072891</t>
         </is>
       </c>
       <c r="C14" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
@@ -2365,12 +2358,12 @@
       </c>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>OEL LANKA  V-1811N</t>
+          <t>MV.A.IDEFIX</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>2018/2515</t>
+          <t>2018/2574</t>
         </is>
       </c>
       <c r="K14" s="0" t="inlineStr">
@@ -2378,17 +2371,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L14" s="0" t="d">
-        <v>2018-09-14T00:00:00</v>
-      </c>
-      <c r="M14" s="0" t="inlineStr">
+      <c r="L14" s="4" t="d">
+        <v>2018-09-10T00:00:00</v>
+      </c>
+      <c r="M14" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N14" s="0"/>
+      <c r="N14" s="4"/>
       <c r="O14" s="0" t="n">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="P14" s="0" t="n">
         <v>0</v>
@@ -2402,7 +2395,7 @@
       <c r="S14" s="0"/>
       <c r="T14" s="0"/>
       <c r="U14" s="0" t="n">
-        <v>1479206</v>
+        <v>1477214</v>
       </c>
       <c r="V14" s="0" t="inlineStr">
         <is>
@@ -2411,12 +2404,12 @@
       </c>
       <c r="W14" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X14" s="0" t="inlineStr">
         <is>
-          <t>F/B DIRTY BY DUST .</t>
+          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
         </is>
       </c>
       <c r="Y14" s="0" t="inlineStr">
@@ -2437,11 +2430,11 @@
     </row>
     <row r="15">
       <c r="A15" s="0" t="n">
-        <v>37000</v>
+        <v>38786</v>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>SNHU8001278</t>
+          <t>TRIU8829921</t>
         </is>
       </c>
       <c r="C15" s="0" t="n">
@@ -2469,35 +2462,35 @@
       </c>
       <c r="H15" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>BRIGHT </t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2623/18</t>
         </is>
       </c>
       <c r="K15" s="0" t="inlineStr">
         <is>
-          <t>HSAT</t>
-        </is>
-      </c>
-      <c r="L15" s="0" t="d">
-        <v>2018-06-19T00:00:00</v>
-      </c>
-      <c r="M15" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L15" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M15" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N15" s="0"/>
+      <c r="N15" s="4"/>
       <c r="O15" s="0" t="n">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="P15" s="0" t="n">
         <v>0</v>
@@ -2511,7 +2504,7 @@
       <c r="S15" s="0"/>
       <c r="T15" s="0"/>
       <c r="U15" s="0" t="n">
-        <v>1441873</v>
+        <v>1478354</v>
       </c>
       <c r="V15" s="0" t="inlineStr">
         <is>
@@ -2546,11 +2539,11 @@
     </row>
     <row r="16">
       <c r="A16" s="0" t="n">
-        <v>37000</v>
+        <v>38786</v>
       </c>
       <c r="B16" s="0" t="inlineStr">
         <is>
-          <t>SNHU8001278</t>
+          <t>TRIU8829921</t>
         </is>
       </c>
       <c r="C16" s="0" t="n">
@@ -2578,35 +2571,35 @@
       </c>
       <c r="H16" s="0" t="inlineStr">
         <is>
-          <t>SAPL-W</t>
+          <t>SAPL-E</t>
         </is>
       </c>
       <c r="I16" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>BRIGHT </t>
         </is>
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t/>
+          <t>2623/18</t>
         </is>
       </c>
       <c r="K16" s="0" t="inlineStr">
         <is>
-          <t>HSAT</t>
-        </is>
-      </c>
-      <c r="L16" s="0" t="d">
-        <v>2018-06-19T00:00:00</v>
-      </c>
-      <c r="M16" s="0" t="inlineStr">
+          <t>CPA</t>
+        </is>
+      </c>
+      <c r="L16" s="4" t="d">
+        <v>2018-09-12T00:00:00</v>
+      </c>
+      <c r="M16" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N16" s="0"/>
+      <c r="N16" s="4"/>
       <c r="O16" s="0" t="n">
-        <v>162</v>
+        <v>77</v>
       </c>
       <c r="P16" s="0" t="n">
         <v>0</v>
@@ -2620,7 +2613,7 @@
       <c r="S16" s="0"/>
       <c r="T16" s="0"/>
       <c r="U16" s="0" t="n">
-        <v>1441873</v>
+        <v>1478354</v>
       </c>
       <c r="V16" s="0" t="inlineStr">
         <is>
@@ -2629,7 +2622,7 @@
       </c>
       <c r="W16" s="0" t="inlineStr">
         <is>
-          <t>FLOOR BOARD-(FLOOR BOARD)</t>
+          <t>Threshold plate-(Threshold plate)</t>
         </is>
       </c>
       <c r="X16" s="0" t="inlineStr">
@@ -2655,19 +2648,19 @@
     </row>
     <row r="17">
       <c r="A17" s="0" t="n">
-        <v>37173</v>
+        <v>39085</v>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>KKFU6993850</t>
+          <t>FSCU3227152</t>
         </is>
       </c>
       <c r="C17" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
@@ -2682,22 +2675,22 @@
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="H17" s="0" t="inlineStr">
+        <is>
           <t>SAPL-W</t>
         </is>
       </c>
-      <c r="H17" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
       <c r="I17" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>MCC QINGDAO</t>
         </is>
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>00/18</t>
         </is>
       </c>
       <c r="K17" s="0" t="inlineStr">
@@ -2705,17 +2698,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L17" s="0" t="d">
-        <v>2018-07-28T00:00:00</v>
-      </c>
-      <c r="M17" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N17" s="0"/>
+      <c r="L17" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M17" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N17" s="4"/>
       <c r="O17" s="0" t="n">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="P17" s="0" t="n">
         <v>0</v>
@@ -2729,21 +2722,21 @@
       <c r="S17" s="0"/>
       <c r="T17" s="0"/>
       <c r="U17" s="0" t="n">
-        <v>1459324</v>
+        <v>1479120</v>
       </c>
       <c r="V17" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>PANELS-(PANELS)</t>
         </is>
       </c>
       <c r="W17" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>Right side panel -(Right side panel )</t>
         </is>
       </c>
       <c r="X17" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK .</t>
+          <t>INTERNAL PANEL DIRTY.</t>
         </is>
       </c>
       <c r="Y17" s="0" t="inlineStr">
@@ -2764,19 +2757,19 @@
     </row>
     <row r="18">
       <c r="A18" s="0" t="n">
-        <v>37173</v>
+        <v>39085</v>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>KKFU6993850</t>
+          <t>FSCU3227152</t>
         </is>
       </c>
       <c r="C18" s="0" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
@@ -2791,22 +2784,22 @@
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="H18" s="0" t="inlineStr">
+        <is>
           <t>SAPL-W</t>
         </is>
       </c>
-      <c r="H18" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>M GOUGH</t>
+          <t>MCC QINGDAO</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>1854/18</t>
+          <t>00/18</t>
         </is>
       </c>
       <c r="K18" s="0" t="inlineStr">
@@ -2814,17 +2807,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L18" s="0" t="d">
-        <v>2018-07-28T00:00:00</v>
-      </c>
-      <c r="M18" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N18" s="0"/>
+      <c r="L18" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M18" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N18" s="4"/>
       <c r="O18" s="0" t="n">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0</v>
@@ -2838,7 +2831,7 @@
       <c r="S18" s="0"/>
       <c r="T18" s="0"/>
       <c r="U18" s="0" t="n">
-        <v>1459324</v>
+        <v>1479120</v>
       </c>
       <c r="V18" s="0" t="inlineStr">
         <is>
@@ -2852,7 +2845,7 @@
       </c>
       <c r="X18" s="0" t="inlineStr">
         <is>
-          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
+          <t>F/BOARD DIRTY BY DUST.</t>
         </is>
       </c>
       <c r="Y18" s="0" t="inlineStr">
@@ -2873,11 +2866,11 @@
     </row>
     <row r="19">
       <c r="A19" s="0" t="n">
-        <v>38415</v>
+        <v>39085</v>
       </c>
       <c r="B19" s="0" t="inlineStr">
         <is>
-          <t>TRIU6610169</t>
+          <t>FSCU3227152</t>
         </is>
       </c>
       <c r="C19" s="0" t="n">
@@ -2885,7 +2878,7 @@
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>RF</t>
+          <t>GP</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
@@ -2900,22 +2893,22 @@
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
+          <t>SAPL-E</t>
+        </is>
+      </c>
+      <c r="H19" s="0" t="inlineStr">
+        <is>
           <t>SAPL-W</t>
         </is>
       </c>
-      <c r="H19" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>	MV.X-PRESS MAHANANDA</t>
+          <t>MCC QINGDAO</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>2018/2407</t>
+          <t>00/18</t>
         </is>
       </c>
       <c r="K19" s="0" t="inlineStr">
@@ -2923,17 +2916,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L19" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M19" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N19" s="0"/>
+      <c r="L19" s="4" t="d">
+        <v>2018-09-13T00:00:00</v>
+      </c>
+      <c r="M19" s="4" t="inlineStr">
+        <is>
+          <t>DAMAGE</t>
+        </is>
+      </c>
+      <c r="N19" s="4"/>
       <c r="O19" s="0" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0</v>
@@ -2947,21 +2940,21 @@
       <c r="S19" s="0"/>
       <c r="T19" s="0"/>
       <c r="U19" s="0" t="n">
-        <v>1477213</v>
+        <v>1479120</v>
       </c>
       <c r="V19" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>DOORS-(D)</t>
         </is>
       </c>
       <c r="W19" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>Door stiffeners hinges side edge.-(Door stiffeners hinges side edge.)</t>
         </is>
       </c>
       <c r="X19" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK .</t>
+          <t>R/DOOR BTM GASKET CUT 06"</t>
         </is>
       </c>
       <c r="Y19" s="0" t="inlineStr">
@@ -2982,15 +2975,15 @@
     </row>
     <row r="20">
       <c r="A20" s="0" t="n">
-        <v>38415</v>
+        <v>39122</v>
       </c>
       <c r="B20" s="0" t="inlineStr">
         <is>
-          <t>TRIU6610169</t>
+          <t>TRIU8433289</t>
         </is>
       </c>
       <c r="C20" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
@@ -3019,12 +3012,12 @@
       </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
-          <t>	MV.X-PRESS MAHANANDA</t>
+          <t>OEL LANKA  V-1811N</t>
         </is>
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>2018/2407</t>
+          <t>2018/2515</t>
         </is>
       </c>
       <c r="K20" s="0" t="inlineStr">
@@ -3032,17 +3025,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L20" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M20" s="0" t="inlineStr">
+      <c r="L20" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M20" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N20" s="0"/>
+      <c r="N20" s="4"/>
       <c r="O20" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0</v>
@@ -3056,21 +3049,21 @@
       <c r="S20" s="0"/>
       <c r="T20" s="0"/>
       <c r="U20" s="0" t="n">
-        <v>1477213</v>
+        <v>1479206</v>
       </c>
       <c r="V20" s="0" t="inlineStr">
         <is>
-          <t>FLOORS-(F)</t>
+          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
         </is>
       </c>
       <c r="W20" s="0" t="inlineStr">
         <is>
-          <t>Threshold plate-(Threshold plate)</t>
+          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
         </is>
       </c>
       <c r="X20" s="0" t="inlineStr">
         <is>
-          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
+          <t>POWER CABLE &amp; PLUG OK .</t>
         </is>
       </c>
       <c r="Y20" s="0" t="inlineStr">
@@ -3091,15 +3084,15 @@
     </row>
     <row r="21">
       <c r="A21" s="0" t="n">
-        <v>38416</v>
+        <v>39122</v>
       </c>
       <c r="B21" s="0" t="inlineStr">
         <is>
-          <t>KKTU6072891</t>
+          <t>TRIU8433289</t>
         </is>
       </c>
       <c r="C21" s="0" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
@@ -3128,12 +3121,12 @@
       </c>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>MV.A.IDEFIX</t>
+          <t>OEL LANKA  V-1811N</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>2018/2574</t>
+          <t>2018/2515</t>
         </is>
       </c>
       <c r="K21" s="0" t="inlineStr">
@@ -3141,17 +3134,17 @@
           <t>CPA</t>
         </is>
       </c>
-      <c r="L21" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M21" s="0" t="inlineStr">
+      <c r="L21" s="4" t="d">
+        <v>2018-09-14T00:00:00</v>
+      </c>
+      <c r="M21" s="4" t="inlineStr">
         <is>
           <t>WASH</t>
         </is>
       </c>
-      <c r="N21" s="0"/>
+      <c r="N21" s="4"/>
       <c r="O21" s="0" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P21" s="0" t="n">
         <v>0</v>
@@ -3165,21 +3158,21 @@
       <c r="S21" s="0"/>
       <c r="T21" s="0"/>
       <c r="U21" s="0" t="n">
-        <v>1477214</v>
+        <v>1479206</v>
       </c>
       <c r="V21" s="0" t="inlineStr">
         <is>
-          <t>REEFER CONTAINER-(REEFER CONTAINER)</t>
+          <t>FLOORS-(F)</t>
         </is>
       </c>
       <c r="W21" s="0" t="inlineStr">
         <is>
-          <t>DOOR INNER PANEL-(DOOR INNER PANEL)</t>
+          <t>FLOOR BOARD-(FLOOR BOARD)</t>
         </is>
       </c>
       <c r="X21" s="0" t="inlineStr">
         <is>
-          <t>POWER CABLE &amp; PLUG OK .</t>
+          <t>F/B DIRTY BY DUST .</t>
         </is>
       </c>
       <c r="Y21" s="0" t="inlineStr">
@@ -3193,115 +3186,6 @@
         </is>
       </c>
       <c r="AA21" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="0" t="n">
-        <v>38416</v>
-      </c>
-      <c r="B22" s="0" t="inlineStr">
-        <is>
-          <t>KKTU6072891</t>
-        </is>
-      </c>
-      <c r="C22" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="D22" s="0" t="inlineStr">
-        <is>
-          <t>RF</t>
-        </is>
-      </c>
-      <c r="E22" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="F22" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="G22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-W</t>
-        </is>
-      </c>
-      <c r="H22" s="0" t="inlineStr">
-        <is>
-          <t>SAPL-E</t>
-        </is>
-      </c>
-      <c r="I22" s="0" t="inlineStr">
-        <is>
-          <t>MV.A.IDEFIX</t>
-        </is>
-      </c>
-      <c r="J22" s="0" t="inlineStr">
-        <is>
-          <t>2018/2574</t>
-        </is>
-      </c>
-      <c r="K22" s="0" t="inlineStr">
-        <is>
-          <t>CPA</t>
-        </is>
-      </c>
-      <c r="L22" s="0" t="d">
-        <v>2018-09-10T00:00:00</v>
-      </c>
-      <c r="M22" s="0" t="inlineStr">
-        <is>
-          <t>WASH</t>
-        </is>
-      </c>
-      <c r="N22" s="0"/>
-      <c r="O22" s="0" t="n">
-        <v>79</v>
-      </c>
-      <c r="P22" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="0" t="inlineStr">
-        <is>
-          <t>Empty</t>
-        </is>
-      </c>
-      <c r="R22" s="0"/>
-      <c r="S22" s="0"/>
-      <c r="T22" s="0"/>
-      <c r="U22" s="0" t="n">
-        <v>1477214</v>
-      </c>
-      <c r="V22" s="0" t="inlineStr">
-        <is>
-          <t>FLOORS-(F)</t>
-        </is>
-      </c>
-      <c r="W22" s="0" t="inlineStr">
-        <is>
-          <t>Threshold plate-(Threshold plate)</t>
-        </is>
-      </c>
-      <c r="X22" s="0" t="inlineStr">
-        <is>
-          <t>RF FLOOR BOARD DIRTY BY DUST &amp; ODOUR .</t>
-        </is>
-      </c>
-      <c r="Y22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="Z22" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="AA22" s="0" t="inlineStr">
         <is>
           <t/>
         </is>
@@ -3328,23 +3212,23 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="75.25617977528091" hidden="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="42.8561797752809" hidden="false"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="13.213483146067416"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="23.713483146067418"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="10.213483146067416"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="7.213483146067416"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.713483146067416"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="8.713483146067416"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="7.213483146067416"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="4.189887640449439"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.713483146067416"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="13.213483146067416"/>
   </cols>
   <sheetData>
     <row ht="20" customHeight="true" r="1">
@@ -3354,78 +3238,117 @@
         </is>
       </c>
     </row>
-    <row ht="18" customHeight="true" r="2">
+    <row ht="16" customHeight="true" r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t> KATGHAR, NORTH PATENGA, CHITTAGONG-4204. </t>
-        </is>
-      </c>
-    </row>
-    <row ht="16" customHeight="true" r="3">
+          <t>BTB</t>
+        </is>
+      </c>
+    </row>
+    <row ht="14" customHeight="true" r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
+          <t>Stock Report Summary</t>
+        </is>
+      </c>
+    </row>
+    <row r="4"/>
+    <row r="5">
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>Agent</t>
+        </is>
+      </c>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Mlo</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="inlineStr">
+        <is>
+          <t>Container Size Type</t>
+        </is>
+      </c>
+      <c r="D5" s="5" t="inlineStr">
+        <is>
+          <t>Sound</t>
+        </is>
+      </c>
+      <c r="E5" s="5" t="inlineStr">
+        <is>
+          <t>Repaired</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>Damage</t>
+        </is>
+      </c>
+      <c r="G5" s="5" t="inlineStr">
+        <is>
+          <t>Wash</t>
+        </is>
+      </c>
+      <c r="H5" s="5" t="inlineStr">
+        <is>
+          <t>Sweep</t>
+        </is>
+      </c>
+      <c r="I5" s="5" t="inlineStr">
+        <is>
+          <t>Clean</t>
+        </is>
+      </c>
+      <c r="J5" s="5" t="inlineStr">
+        <is>
+          <t>Total Box</t>
+        </is>
+      </c>
+      <c r="K5" s="5" t="inlineStr">
+        <is>
+          <t>Total Teus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>BS</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
           <t>BTB</t>
         </is>
       </c>
-    </row>
-    <row ht="14" customHeight="true" r="4">
-      <c r="A4" s="3" t="inlineStr">
-        <is>
-          <t>Stock Report Summary</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>Agent</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>MLO</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>Size-Type</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Sound</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Repaired</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>Damage</t>
-        </is>
-      </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>Wash</t>
-        </is>
-      </c>
-      <c r="H6" s="4" t="inlineStr">
-        <is>
-          <t>Sweep</t>
-        </is>
-      </c>
-      <c r="I6" s="4" t="inlineStr">
-        <is>
-          <t>Clean</t>
-        </is>
-      </c>
-      <c r="J6" s="4" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>20-GP</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -3441,7 +3364,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>20-GP</t>
+          <t>20-RF</t>
         </is>
       </c>
       <c r="D7" s="0" t="n">
@@ -3451,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -3463,10 +3386,10 @@
         <v>0</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -3482,7 +3405,7 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>20-RF</t>
+          <t>40-RF</t>
         </is>
       </c>
       <c r="D8" s="0" t="n">
@@ -3495,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -3504,50 +3427,9 @@
         <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="0" t="inlineStr">
-        <is>
-          <t>BS</t>
-        </is>
-      </c>
-      <c r="B9" s="0" t="inlineStr">
-        <is>
-          <t>BTB</t>
-        </is>
-      </c>
-      <c r="C9" s="0" t="inlineStr">
-        <is>
-          <t>40-RF</t>
-        </is>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="K9" s="0" t="n">
         <v>8</v>
       </c>
     </row>
